--- a/numberSheet/sheetFont2.xlsx
+++ b/numberSheet/sheetFont2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28360" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -113,13 +113,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="ヒラギノ明朝 Pro W3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="40"/>
       <color theme="1"/>
       <name val="ヒラギノ明朝 Pro W3"/>
       <charset val="128"/>
@@ -330,10 +330,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="159">
@@ -826,7 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" activeCellId="9" sqref="A6 A6:XFD6 A9:XFD9 A12:XFD12 A15:XFD15 A18:XFD18 A21:XFD21 A24:XFD24 A27:XFD27 A30:XFD30"/>
     </sheetView>
   </sheetViews>
@@ -936,41 +936,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A6" s="5">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>9</v>
-      </c>
-      <c r="H6" s="5">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5">
-        <v>7</v>
-      </c>
-      <c r="J6" s="5">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5">
-        <v>9</v>
-      </c>
-      <c r="L6" s="5">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>7</v>
+      </c>
+      <c r="C6" s="6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4</v>
+      </c>
+      <c r="K6" s="6">
+        <v>9</v>
+      </c>
+      <c r="L6" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1026,41 +1026,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A9" s="5">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5">
-        <v>6</v>
-      </c>
-      <c r="F9" s="5">
-        <v>6</v>
-      </c>
-      <c r="G9" s="5">
-        <v>9</v>
-      </c>
-      <c r="H9" s="5">
-        <v>4</v>
-      </c>
-      <c r="I9" s="5">
-        <v>4</v>
-      </c>
-      <c r="J9" s="5">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5">
-        <v>8</v>
-      </c>
-      <c r="L9" s="5">
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A9" s="6">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6">
+        <v>4</v>
+      </c>
+      <c r="I9" s="6">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5</v>
+      </c>
+      <c r="K9" s="6">
+        <v>8</v>
+      </c>
+      <c r="L9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1116,41 +1116,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A12" s="5">
-        <v>7</v>
-      </c>
-      <c r="B12" s="5">
-        <v>3</v>
-      </c>
-      <c r="C12" s="5">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>6</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>2</v>
-      </c>
-      <c r="K12" s="5">
-        <v>4</v>
-      </c>
-      <c r="L12" s="5">
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>6</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>4</v>
+      </c>
+      <c r="L12" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1206,41 +1206,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A15" s="5">
-        <v>0</v>
-      </c>
-      <c r="B15" s="5">
-        <v>5</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>9</v>
-      </c>
-      <c r="G15" s="5">
-        <v>3</v>
-      </c>
-      <c r="H15" s="5">
-        <v>8</v>
-      </c>
-      <c r="I15" s="5">
-        <v>6</v>
-      </c>
-      <c r="J15" s="5">
-        <v>9</v>
-      </c>
-      <c r="K15" s="5">
-        <v>4</v>
-      </c>
-      <c r="L15" s="5">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A15" s="6">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6">
+        <v>5</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>8</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="6">
+        <v>8</v>
+      </c>
+      <c r="I15" s="6">
+        <v>6</v>
+      </c>
+      <c r="J15" s="6">
+        <v>9</v>
+      </c>
+      <c r="K15" s="6">
+        <v>4</v>
+      </c>
+      <c r="L15" s="6">
         <v>7</v>
       </c>
     </row>
@@ -1296,41 +1296,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A18" s="5">
-        <v>6</v>
-      </c>
-      <c r="B18" s="5">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5">
-        <v>3</v>
-      </c>
-      <c r="D18" s="5">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5">
-        <v>7</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>2</v>
-      </c>
-      <c r="J18" s="5">
-        <v>4</v>
-      </c>
-      <c r="K18" s="5">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5">
+    <row r="18" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A18" s="6">
+        <v>6</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>4</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1386,41 +1386,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A21" s="5">
-        <v>0</v>
-      </c>
-      <c r="B21" s="5">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5">
-        <v>8</v>
-      </c>
-      <c r="E21" s="5">
-        <v>7</v>
-      </c>
-      <c r="F21" s="5">
-        <v>5</v>
-      </c>
-      <c r="G21" s="5">
-        <v>8</v>
-      </c>
-      <c r="H21" s="5">
-        <v>3</v>
-      </c>
-      <c r="I21" s="5">
-        <v>5</v>
-      </c>
-      <c r="J21" s="5">
-        <v>6</v>
-      </c>
-      <c r="K21" s="5">
-        <v>3</v>
-      </c>
-      <c r="L21" s="5">
+    <row r="21" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A21" s="6">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6">
+        <v>7</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8</v>
+      </c>
+      <c r="E21" s="6">
+        <v>7</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6">
+        <v>8</v>
+      </c>
+      <c r="H21" s="6">
+        <v>3</v>
+      </c>
+      <c r="I21" s="6">
+        <v>5</v>
+      </c>
+      <c r="J21" s="6">
+        <v>6</v>
+      </c>
+      <c r="K21" s="6">
+        <v>3</v>
+      </c>
+      <c r="L21" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1476,41 +1476,41 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A24" s="5">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5">
-        <v>3</v>
-      </c>
-      <c r="C24" s="5">
-        <v>4</v>
-      </c>
-      <c r="D24" s="5">
-        <v>3</v>
-      </c>
-      <c r="E24" s="5">
-        <v>5</v>
-      </c>
-      <c r="F24" s="5">
-        <v>7</v>
-      </c>
-      <c r="G24" s="5">
-        <v>6</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5">
-        <v>5</v>
-      </c>
-      <c r="J24" s="5">
-        <v>6</v>
-      </c>
-      <c r="K24" s="5">
-        <v>2</v>
-      </c>
-      <c r="L24" s="5">
+    <row r="24" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A24" s="6">
+        <v>3</v>
+      </c>
+      <c r="B24" s="6">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6">
+        <v>4</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5</v>
+      </c>
+      <c r="F24" s="6">
+        <v>7</v>
+      </c>
+      <c r="G24" s="6">
+        <v>6</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>5</v>
+      </c>
+      <c r="J24" s="6">
+        <v>6</v>
+      </c>
+      <c r="K24" s="6">
+        <v>2</v>
+      </c>
+      <c r="L24" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1566,41 +1566,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A27" s="5">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5">
-        <v>8</v>
-      </c>
-      <c r="C27" s="5">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>3</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>8</v>
-      </c>
-      <c r="H27" s="5">
-        <v>1</v>
-      </c>
-      <c r="I27" s="5">
-        <v>7</v>
-      </c>
-      <c r="J27" s="5">
-        <v>7</v>
-      </c>
-      <c r="K27" s="5">
-        <v>1</v>
-      </c>
-      <c r="L27" s="5">
+    <row r="27" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A27" s="6">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>8</v>
+      </c>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6">
+        <v>7</v>
+      </c>
+      <c r="J27" s="6">
+        <v>7</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1</v>
+      </c>
+      <c r="L27" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1656,41 +1656,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A30" s="5">
-        <v>5</v>
-      </c>
-      <c r="B30" s="5">
-        <v>6</v>
-      </c>
-      <c r="C30" s="5">
-        <v>5</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2</v>
-      </c>
-      <c r="E30" s="5">
-        <v>2</v>
-      </c>
-      <c r="F30" s="5">
-        <v>8</v>
-      </c>
-      <c r="G30" s="5">
-        <v>9</v>
-      </c>
-      <c r="H30" s="5">
-        <v>4</v>
-      </c>
-      <c r="I30" s="5">
-        <v>5</v>
-      </c>
-      <c r="J30" s="5">
-        <v>6</v>
-      </c>
-      <c r="K30" s="5">
-        <v>5</v>
-      </c>
-      <c r="L30" s="5">
+    <row r="30" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A30" s="6">
+        <v>5</v>
+      </c>
+      <c r="B30" s="6">
+        <v>6</v>
+      </c>
+      <c r="C30" s="6">
+        <v>5</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
+        <v>8</v>
+      </c>
+      <c r="G30" s="6">
+        <v>9</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5</v>
+      </c>
+      <c r="J30" s="6">
+        <v>6</v>
+      </c>
+      <c r="K30" s="6">
+        <v>5</v>
+      </c>
+      <c r="L30" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1822,40 +1822,40 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A6" s="5">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="5">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5">
-        <v>7</v>
-      </c>
-      <c r="J6" s="5">
-        <v>2</v>
-      </c>
-      <c r="K6" s="5">
-        <v>3</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2</v>
+      </c>
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1912,40 +1912,40 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5">
-        <v>3</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5">
-        <v>9</v>
-      </c>
-      <c r="H9" s="5">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5">
-        <v>5</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>5</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2002,40 +2002,40 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A12" s="5">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5">
-        <v>3</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>3</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="A12" s="6">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>3</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1</v>
+      </c>
+      <c r="L12" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2092,40 +2092,40 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A15" s="5">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>6</v>
-      </c>
-      <c r="I15" s="5">
-        <v>5</v>
-      </c>
-      <c r="J15" s="5">
-        <v>3</v>
-      </c>
-      <c r="K15" s="5">
-        <v>2</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="A15" s="6">
+        <v>4</v>
+      </c>
+      <c r="B15" s="6">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>6</v>
+      </c>
+      <c r="I15" s="6">
+        <v>5</v>
+      </c>
+      <c r="J15" s="6">
+        <v>3</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2</v>
+      </c>
+      <c r="L15" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2182,40 +2182,40 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A18" s="5">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5">
-        <v>8</v>
-      </c>
-      <c r="C18" s="5">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5">
-        <v>7</v>
-      </c>
-      <c r="F18" s="5">
-        <v>4</v>
-      </c>
-      <c r="G18" s="5">
-        <v>3</v>
-      </c>
-      <c r="H18" s="5">
-        <v>8</v>
-      </c>
-      <c r="I18" s="5">
-        <v>2</v>
-      </c>
-      <c r="J18" s="5">
-        <v>2</v>
-      </c>
-      <c r="K18" s="5">
-        <v>5</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6">
+        <v>4</v>
+      </c>
+      <c r="G18" s="6">
+        <v>3</v>
+      </c>
+      <c r="H18" s="6">
+        <v>8</v>
+      </c>
+      <c r="I18" s="6">
+        <v>2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>5</v>
+      </c>
+      <c r="L18" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2272,40 +2272,40 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A21" s="5">
-        <v>4</v>
-      </c>
-      <c r="B21" s="5">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>9</v>
-      </c>
-      <c r="E21" s="5">
-        <v>4</v>
-      </c>
-      <c r="F21" s="5">
-        <v>8</v>
-      </c>
-      <c r="G21" s="5">
-        <v>6</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
-        <v>3</v>
-      </c>
-      <c r="J21" s="5">
-        <v>5</v>
-      </c>
-      <c r="K21" s="5">
-        <v>2</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6">
+        <v>8</v>
+      </c>
+      <c r="D21" s="6">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4</v>
+      </c>
+      <c r="F21" s="6">
+        <v>8</v>
+      </c>
+      <c r="G21" s="6">
+        <v>6</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3</v>
+      </c>
+      <c r="J21" s="6">
+        <v>5</v>
+      </c>
+      <c r="K21" s="6">
+        <v>2</v>
+      </c>
+      <c r="L21" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2362,40 +2362,40 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A24" s="5">
-        <v>0</v>
-      </c>
-      <c r="B24" s="5">
-        <v>6</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
-        <v>9</v>
-      </c>
-      <c r="E24" s="5">
-        <v>4</v>
-      </c>
-      <c r="F24" s="5">
-        <v>9</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0</v>
-      </c>
-      <c r="H24" s="5">
-        <v>1</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5">
-        <v>3</v>
-      </c>
-      <c r="K24" s="5">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5">
+      <c r="A24" s="6">
+        <v>0</v>
+      </c>
+      <c r="B24" s="6">
+        <v>6</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>9</v>
+      </c>
+      <c r="E24" s="6">
+        <v>4</v>
+      </c>
+      <c r="F24" s="6">
+        <v>9</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>3</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6">
         <v>3</v>
       </c>
     </row>
@@ -2452,40 +2452,40 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A27" s="5">
-        <v>0</v>
-      </c>
-      <c r="B27" s="5">
-        <v>6</v>
-      </c>
-      <c r="C27" s="5">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5">
-        <v>8</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5">
-        <v>5</v>
-      </c>
-      <c r="I27" s="5">
-        <v>2</v>
-      </c>
-      <c r="J27" s="5">
-        <v>9</v>
-      </c>
-      <c r="K27" s="5">
-        <v>2</v>
-      </c>
-      <c r="L27" s="5">
+      <c r="A27" s="6">
+        <v>0</v>
+      </c>
+      <c r="B27" s="6">
+        <v>6</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6">
+        <v>8</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>5</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2</v>
+      </c>
+      <c r="J27" s="6">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6">
+        <v>2</v>
+      </c>
+      <c r="L27" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2542,40 +2542,40 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A30" s="5">
-        <v>1</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5">
-        <v>4</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0</v>
-      </c>
-      <c r="E30" s="5">
-        <v>3</v>
-      </c>
-      <c r="F30" s="5">
-        <v>5</v>
-      </c>
-      <c r="G30" s="5">
-        <v>6</v>
-      </c>
-      <c r="H30" s="5">
-        <v>7</v>
-      </c>
-      <c r="I30" s="5">
-        <v>8</v>
-      </c>
-      <c r="J30" s="5">
-        <v>1</v>
-      </c>
-      <c r="K30" s="5">
-        <v>9</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>4</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>3</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5</v>
+      </c>
+      <c r="G30" s="6">
+        <v>6</v>
+      </c>
+      <c r="H30" s="6">
+        <v>7</v>
+      </c>
+      <c r="I30" s="6">
+        <v>8</v>
+      </c>
+      <c r="J30" s="6">
+        <v>1</v>
+      </c>
+      <c r="K30" s="6">
+        <v>9</v>
+      </c>
+      <c r="L30" s="6">
         <v>6</v>
       </c>
     </row>
@@ -2707,40 +2707,40 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>9</v>
-      </c>
-      <c r="G6" s="5">
-        <v>9</v>
-      </c>
-      <c r="H6" s="5">
-        <v>9</v>
-      </c>
-      <c r="I6" s="5">
-        <v>2</v>
-      </c>
-      <c r="J6" s="5">
-        <v>9</v>
-      </c>
-      <c r="K6" s="5">
-        <v>9</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>9</v>
+      </c>
+      <c r="G6" s="6">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="6">
+        <v>9</v>
+      </c>
+      <c r="K6" s="6">
+        <v>9</v>
+      </c>
+      <c r="L6" s="6">
         <v>5</v>
       </c>
     </row>
@@ -2797,40 +2797,40 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A9" s="5">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2</v>
-      </c>
-      <c r="H9" s="5">
-        <v>6</v>
-      </c>
-      <c r="I9" s="5">
-        <v>7</v>
-      </c>
-      <c r="J9" s="5">
-        <v>3</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6</v>
+      </c>
+      <c r="I9" s="6">
+        <v>7</v>
+      </c>
+      <c r="J9" s="6">
+        <v>3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
         <v>6</v>
       </c>
     </row>
@@ -2887,40 +2887,40 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5">
-        <v>9</v>
-      </c>
-      <c r="F12" s="5">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5">
-        <v>4</v>
-      </c>
-      <c r="H12" s="5">
-        <v>9</v>
-      </c>
-      <c r="I12" s="5">
-        <v>5</v>
-      </c>
-      <c r="J12" s="5">
-        <v>4</v>
-      </c>
-      <c r="K12" s="5">
-        <v>4</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="A12" s="6">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="6">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6">
+        <v>9</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4</v>
+      </c>
+      <c r="H12" s="6">
+        <v>9</v>
+      </c>
+      <c r="I12" s="6">
+        <v>5</v>
+      </c>
+      <c r="J12" s="6">
+        <v>4</v>
+      </c>
+      <c r="K12" s="6">
+        <v>4</v>
+      </c>
+      <c r="L12" s="6">
         <v>4</v>
       </c>
     </row>
@@ -2977,40 +2977,40 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A15" s="5">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5">
-        <v>5</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5">
-        <v>8</v>
-      </c>
-      <c r="G15" s="5">
-        <v>8</v>
-      </c>
-      <c r="H15" s="5">
-        <v>3</v>
-      </c>
-      <c r="I15" s="5">
-        <v>2</v>
-      </c>
-      <c r="J15" s="5">
-        <v>2</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="A15" s="6">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6">
+        <v>8</v>
+      </c>
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="6">
+        <v>2</v>
+      </c>
+      <c r="J15" s="6">
+        <v>2</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
         <v>8</v>
       </c>
     </row>
@@ -3067,40 +3067,40 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A18" s="5">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5">
-        <v>4</v>
-      </c>
-      <c r="C18" s="5">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
-        <v>4</v>
-      </c>
-      <c r="G18" s="5">
-        <v>2</v>
-      </c>
-      <c r="H18" s="5">
-        <v>4</v>
-      </c>
-      <c r="I18" s="5">
-        <v>8</v>
-      </c>
-      <c r="J18" s="5">
-        <v>2</v>
-      </c>
-      <c r="K18" s="5">
-        <v>9</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <v>4</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>4</v>
+      </c>
+      <c r="I18" s="6">
+        <v>8</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>9</v>
+      </c>
+      <c r="L18" s="6">
         <v>3</v>
       </c>
     </row>
@@ -3157,40 +3157,40 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A21" s="5">
-        <v>3</v>
-      </c>
-      <c r="B21" s="5">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5">
-        <v>6</v>
-      </c>
-      <c r="D21" s="5">
-        <v>6</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5">
-        <v>7</v>
-      </c>
-      <c r="G21" s="5">
-        <v>4</v>
-      </c>
-      <c r="H21" s="5">
-        <v>6</v>
-      </c>
-      <c r="I21" s="5">
-        <v>8</v>
-      </c>
-      <c r="J21" s="5">
-        <v>7</v>
-      </c>
-      <c r="K21" s="5">
-        <v>4</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6">
+        <v>6</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>7</v>
+      </c>
+      <c r="G21" s="6">
+        <v>4</v>
+      </c>
+      <c r="H21" s="6">
+        <v>6</v>
+      </c>
+      <c r="I21" s="6">
+        <v>8</v>
+      </c>
+      <c r="J21" s="6">
+        <v>7</v>
+      </c>
+      <c r="K21" s="6">
+        <v>4</v>
+      </c>
+      <c r="L21" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3247,40 +3247,40 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A24" s="5">
-        <v>2</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
-        <v>5</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>3</v>
-      </c>
-      <c r="H24" s="5">
-        <v>5</v>
-      </c>
-      <c r="I24" s="5">
-        <v>9</v>
-      </c>
-      <c r="J24" s="5">
-        <v>6</v>
-      </c>
-      <c r="K24" s="5">
-        <v>6</v>
-      </c>
-      <c r="L24" s="5">
+      <c r="A24" s="6">
+        <v>2</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>3</v>
+      </c>
+      <c r="H24" s="6">
+        <v>5</v>
+      </c>
+      <c r="I24" s="6">
+        <v>9</v>
+      </c>
+      <c r="J24" s="6">
+        <v>6</v>
+      </c>
+      <c r="K24" s="6">
+        <v>6</v>
+      </c>
+      <c r="L24" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3337,40 +3337,40 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A27" s="5">
-        <v>5</v>
-      </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-      <c r="C27" s="5">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0</v>
-      </c>
-      <c r="E27" s="5">
-        <v>6</v>
-      </c>
-      <c r="F27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="5">
-        <v>7</v>
-      </c>
-      <c r="H27" s="5">
-        <v>7</v>
-      </c>
-      <c r="I27" s="5">
-        <v>7</v>
-      </c>
-      <c r="J27" s="5">
-        <v>5</v>
-      </c>
-      <c r="K27" s="5">
-        <v>9</v>
-      </c>
-      <c r="L27" s="5">
+      <c r="A27" s="6">
+        <v>5</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6">
+        <v>5</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>6</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>7</v>
+      </c>
+      <c r="H27" s="6">
+        <v>7</v>
+      </c>
+      <c r="I27" s="6">
+        <v>7</v>
+      </c>
+      <c r="J27" s="6">
+        <v>5</v>
+      </c>
+      <c r="K27" s="6">
+        <v>9</v>
+      </c>
+      <c r="L27" s="6">
         <v>4</v>
       </c>
     </row>
@@ -3427,40 +3427,40 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A30" s="5">
-        <v>0</v>
-      </c>
-      <c r="B30" s="5">
-        <v>8</v>
-      </c>
-      <c r="C30" s="5">
-        <v>6</v>
-      </c>
-      <c r="D30" s="5">
-        <v>2</v>
-      </c>
-      <c r="E30" s="5">
-        <v>9</v>
-      </c>
-      <c r="F30" s="5">
-        <v>7</v>
-      </c>
-      <c r="G30" s="5">
-        <v>2</v>
-      </c>
-      <c r="H30" s="5">
-        <v>3</v>
-      </c>
-      <c r="I30" s="5">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5">
-        <v>7</v>
-      </c>
-      <c r="K30" s="5">
-        <v>7</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="A30" s="6">
+        <v>0</v>
+      </c>
+      <c r="B30" s="6">
+        <v>8</v>
+      </c>
+      <c r="C30" s="6">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6">
+        <v>2</v>
+      </c>
+      <c r="E30" s="6">
+        <v>9</v>
+      </c>
+      <c r="F30" s="6">
+        <v>7</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3</v>
+      </c>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+      <c r="J30" s="6">
+        <v>7</v>
+      </c>
+      <c r="K30" s="6">
+        <v>7</v>
+      </c>
+      <c r="L30" s="6">
         <v>7</v>
       </c>
     </row>
@@ -3592,40 +3592,40 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A6" s="5">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>4</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4</v>
+      </c>
+      <c r="H6" s="6">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>4</v>
+      </c>
+      <c r="L6" s="6">
         <v>5</v>
       </c>
     </row>
@@ -3682,40 +3682,40 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A9" s="5">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5">
-        <v>8</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>5</v>
-      </c>
-      <c r="I9" s="5">
-        <v>7</v>
-      </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="5">
-        <v>6</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6">
+        <v>8</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>5</v>
+      </c>
+      <c r="I9" s="6">
+        <v>7</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6">
         <v>7</v>
       </c>
     </row>
@@ -3772,40 +3772,40 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A12" s="5">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5">
-        <v>4</v>
-      </c>
-      <c r="G12" s="5">
-        <v>4</v>
-      </c>
-      <c r="H12" s="5">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>2</v>
-      </c>
-      <c r="K12" s="5">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="A12" s="6">
+        <v>6</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6">
+        <v>4</v>
+      </c>
+      <c r="G12" s="6">
+        <v>4</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
         <v>2</v>
       </c>
     </row>
@@ -3862,40 +3862,40 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A15" s="5">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5">
-        <v>6</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <v>7</v>
-      </c>
-      <c r="H15" s="5">
-        <v>2</v>
-      </c>
-      <c r="I15" s="5">
-        <v>4</v>
-      </c>
-      <c r="J15" s="5">
-        <v>4</v>
-      </c>
-      <c r="K15" s="5">
-        <v>6</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6">
+        <v>7</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6">
+        <v>4</v>
+      </c>
+      <c r="J15" s="6">
+        <v>4</v>
+      </c>
+      <c r="K15" s="6">
+        <v>6</v>
+      </c>
+      <c r="L15" s="6">
         <v>7</v>
       </c>
     </row>
@@ -3952,40 +3952,40 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A18" s="5">
-        <v>5</v>
-      </c>
-      <c r="B18" s="5">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5">
-        <v>4</v>
-      </c>
-      <c r="E18" s="5">
-        <v>7</v>
-      </c>
-      <c r="F18" s="5">
-        <v>8</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>6</v>
-      </c>
-      <c r="I18" s="5">
-        <v>5</v>
-      </c>
-      <c r="J18" s="5">
-        <v>8</v>
-      </c>
-      <c r="K18" s="5">
-        <v>4</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="A18" s="6">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6">
+        <v>5</v>
+      </c>
+      <c r="C18" s="6">
+        <v>8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6">
+        <v>8</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18" s="6">
+        <v>6</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
+      <c r="J18" s="6">
+        <v>8</v>
+      </c>
+      <c r="K18" s="6">
+        <v>4</v>
+      </c>
+      <c r="L18" s="6">
         <v>6</v>
       </c>
     </row>
@@ -4042,40 +4042,40 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A21" s="5">
-        <v>4</v>
-      </c>
-      <c r="B21" s="5">
-        <v>8</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
-        <v>7</v>
-      </c>
-      <c r="E21" s="5">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5">
-        <v>5</v>
-      </c>
-      <c r="G21" s="5">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="5">
-        <v>3</v>
-      </c>
-      <c r="J21" s="5">
-        <v>6</v>
-      </c>
-      <c r="K21" s="5">
-        <v>8</v>
-      </c>
-      <c r="L21" s="5">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="6">
+        <v>8</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>7</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6">
+        <v>5</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>3</v>
+      </c>
+      <c r="J21" s="6">
+        <v>6</v>
+      </c>
+      <c r="K21" s="6">
+        <v>8</v>
+      </c>
+      <c r="L21" s="6">
         <v>9</v>
       </c>
     </row>
@@ -4132,40 +4132,40 @@
       </c>
     </row>
     <row r="24" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A24" s="5">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5">
-        <v>3</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>5</v>
-      </c>
-      <c r="H24" s="5">
-        <v>4</v>
-      </c>
-      <c r="I24" s="5">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5">
-        <v>6</v>
-      </c>
-      <c r="K24" s="5">
-        <v>9</v>
-      </c>
-      <c r="L24" s="5">
+      <c r="A24" s="6">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>5</v>
+      </c>
+      <c r="H24" s="6">
+        <v>4</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>6</v>
+      </c>
+      <c r="K24" s="6">
+        <v>9</v>
+      </c>
+      <c r="L24" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4222,40 +4222,40 @@
       </c>
     </row>
     <row r="27" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A27" s="5">
-        <v>4</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5">
-        <v>3</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
-        <v>5</v>
-      </c>
-      <c r="G27" s="5">
-        <v>7</v>
-      </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
-        <v>3</v>
-      </c>
-      <c r="J27" s="5">
-        <v>8</v>
-      </c>
-      <c r="K27" s="5">
-        <v>8</v>
-      </c>
-      <c r="L27" s="5">
+      <c r="A27" s="6">
+        <v>4</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6">
+        <v>7</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>3</v>
+      </c>
+      <c r="J27" s="6">
+        <v>8</v>
+      </c>
+      <c r="K27" s="6">
+        <v>8</v>
+      </c>
+      <c r="L27" s="6">
         <v>9</v>
       </c>
     </row>
@@ -4312,40 +4312,40 @@
       </c>
     </row>
     <row r="30" spans="1:12" s="4" customFormat="1" ht="43" customHeight="1">
-      <c r="A30" s="5">
-        <v>2</v>
-      </c>
-      <c r="B30" s="5">
-        <v>4</v>
-      </c>
-      <c r="C30" s="5">
-        <v>7</v>
-      </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>8</v>
-      </c>
-      <c r="F30" s="5">
-        <v>6</v>
-      </c>
-      <c r="G30" s="5">
-        <v>2</v>
-      </c>
-      <c r="H30" s="5">
-        <v>3</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5">
-        <v>8</v>
-      </c>
-      <c r="K30" s="5">
-        <v>0</v>
-      </c>
-      <c r="L30" s="5">
+      <c r="A30" s="6">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6">
+        <v>4</v>
+      </c>
+      <c r="C30" s="6">
+        <v>7</v>
+      </c>
+      <c r="D30" s="6">
+        <v>1</v>
+      </c>
+      <c r="E30" s="6">
+        <v>8</v>
+      </c>
+      <c r="F30" s="6">
+        <v>6</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6">
+        <v>3</v>
+      </c>
+      <c r="I30" s="6">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>8</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="6">
         <v>6</v>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" activeCellId="8" sqref="A6:XFD6 A9:XFD9 A12:XFD12 A15:XFD15 A18:XFD18 A21:XFD21 A24:XFD24 A27:XFD27 A30:XFD30"/>
     </sheetView>
   </sheetViews>
@@ -4477,40 +4477,40 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5">
-        <v>7</v>
-      </c>
-      <c r="F6" s="5">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5">
-        <v>9</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>7</v>
-      </c>
-      <c r="J6" s="5">
-        <v>6</v>
-      </c>
-      <c r="K6" s="5">
-        <v>5</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>7</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="6">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="6">
         <v>7</v>
       </c>
     </row>
@@ -4566,41 +4566,41 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A9" s="5">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
-        <v>3</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5">
-        <v>9</v>
-      </c>
-      <c r="I9" s="5">
-        <v>3</v>
-      </c>
-      <c r="J9" s="5">
-        <v>3</v>
-      </c>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5">
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A9" s="6">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6">
+        <v>3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>3</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
         <v>7</v>
       </c>
     </row>
@@ -4656,41 +4656,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A12" s="5">
-        <v>0</v>
-      </c>
-      <c r="B12" s="5">
-        <v>6</v>
-      </c>
-      <c r="C12" s="5">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5">
-        <v>3</v>
-      </c>
-      <c r="F12" s="5">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>9</v>
-      </c>
-      <c r="H12" s="5">
-        <v>4</v>
-      </c>
-      <c r="I12" s="5">
-        <v>2</v>
-      </c>
-      <c r="J12" s="5">
-        <v>2</v>
-      </c>
-      <c r="K12" s="5">
-        <v>6</v>
-      </c>
-      <c r="L12" s="5">
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A12" s="6">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6">
+        <v>4</v>
+      </c>
+      <c r="I12" s="6">
+        <v>2</v>
+      </c>
+      <c r="J12" s="6">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6">
+        <v>6</v>
+      </c>
+      <c r="L12" s="6">
         <v>3</v>
       </c>
     </row>
@@ -4746,41 +4746,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A15" s="5">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>8</v>
-      </c>
-      <c r="G15" s="5">
-        <v>4</v>
-      </c>
-      <c r="H15" s="5">
-        <v>6</v>
-      </c>
-      <c r="I15" s="5">
-        <v>3</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="5">
-        <v>7</v>
-      </c>
-      <c r="L15" s="5">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A15" s="6">
+        <v>6</v>
+      </c>
+      <c r="B15" s="6">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>8</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6">
+        <v>6</v>
+      </c>
+      <c r="I15" s="6">
+        <v>3</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1</v>
+      </c>
+      <c r="K15" s="6">
+        <v>7</v>
+      </c>
+      <c r="L15" s="6">
         <v>2</v>
       </c>
     </row>
@@ -4835,43 +4835,43 @@
       <c r="L17" s="3">
         <v>5</v>
       </c>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A18" s="5">
-        <v>9</v>
-      </c>
-      <c r="B18" s="5">
-        <v>9</v>
-      </c>
-      <c r="C18" s="5">
-        <v>9</v>
-      </c>
-      <c r="D18" s="5">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5">
-        <v>7</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>7</v>
-      </c>
-      <c r="I18" s="5">
-        <v>4</v>
-      </c>
-      <c r="J18" s="5">
-        <v>2</v>
-      </c>
-      <c r="K18" s="5">
-        <v>6</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="1:15" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A18" s="6">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>7</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>7</v>
+      </c>
+      <c r="I18" s="6">
+        <v>4</v>
+      </c>
+      <c r="J18" s="6">
+        <v>2</v>
+      </c>
+      <c r="K18" s="6">
+        <v>6</v>
+      </c>
+      <c r="L18" s="6">
         <v>5</v>
       </c>
     </row>
@@ -4927,41 +4927,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A21" s="5">
-        <v>1</v>
-      </c>
-      <c r="B21" s="5">
-        <v>7</v>
-      </c>
-      <c r="C21" s="5">
-        <v>9</v>
-      </c>
-      <c r="D21" s="5">
-        <v>5</v>
-      </c>
-      <c r="E21" s="5">
-        <v>4</v>
-      </c>
-      <c r="F21" s="5">
-        <v>6</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>8</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="5">
-        <v>7</v>
-      </c>
-      <c r="L21" s="5">
+    <row r="21" spans="1:15" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6">
+        <v>7</v>
+      </c>
+      <c r="C21" s="6">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6">
+        <v>4</v>
+      </c>
+      <c r="F21" s="6">
+        <v>6</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <v>8</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>7</v>
+      </c>
+      <c r="L21" s="6">
         <v>6</v>
       </c>
     </row>
@@ -5017,41 +5017,41 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A24" s="5">
-        <v>5</v>
-      </c>
-      <c r="B24" s="5">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5">
-        <v>7</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0</v>
-      </c>
-      <c r="G24" s="5">
-        <v>7</v>
-      </c>
-      <c r="H24" s="5">
-        <v>9</v>
-      </c>
-      <c r="I24" s="5">
-        <v>2</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
-      <c r="K24" s="5">
-        <v>3</v>
-      </c>
-      <c r="L24" s="5">
+    <row r="24" spans="1:15" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A24" s="6">
+        <v>5</v>
+      </c>
+      <c r="B24" s="6">
+        <v>9</v>
+      </c>
+      <c r="C24" s="6">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>7</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>7</v>
+      </c>
+      <c r="H24" s="6">
+        <v>9</v>
+      </c>
+      <c r="I24" s="6">
+        <v>2</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>3</v>
+      </c>
+      <c r="L24" s="6">
         <v>8</v>
       </c>
     </row>
@@ -5107,41 +5107,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A27" s="5">
-        <v>9</v>
-      </c>
-      <c r="B27" s="5">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5">
-        <v>4</v>
-      </c>
-      <c r="D27" s="5">
-        <v>4</v>
-      </c>
-      <c r="E27" s="5">
-        <v>5</v>
-      </c>
-      <c r="F27" s="5">
-        <v>7</v>
-      </c>
-      <c r="G27" s="5">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5">
-        <v>3</v>
-      </c>
-      <c r="I27" s="5">
-        <v>1</v>
-      </c>
-      <c r="J27" s="5">
-        <v>8</v>
-      </c>
-      <c r="K27" s="5">
-        <v>7</v>
-      </c>
-      <c r="L27" s="5">
+    <row r="27" spans="1:15" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A27" s="6">
+        <v>9</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>4</v>
+      </c>
+      <c r="D27" s="6">
+        <v>4</v>
+      </c>
+      <c r="E27" s="6">
+        <v>5</v>
+      </c>
+      <c r="F27" s="6">
+        <v>7</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6">
+        <v>3</v>
+      </c>
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
+        <v>8</v>
+      </c>
+      <c r="K27" s="6">
+        <v>7</v>
+      </c>
+      <c r="L27" s="6">
         <v>2</v>
       </c>
     </row>
@@ -5197,41 +5197,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="6" customFormat="1" ht="43" customHeight="1">
-      <c r="A30" s="5">
-        <v>1</v>
-      </c>
-      <c r="B30" s="5">
-        <v>3</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5">
-        <v>9</v>
-      </c>
-      <c r="E30" s="5">
-        <v>5</v>
-      </c>
-      <c r="F30" s="5">
-        <v>7</v>
-      </c>
-      <c r="G30" s="5">
-        <v>8</v>
-      </c>
-      <c r="H30" s="5">
-        <v>1</v>
-      </c>
-      <c r="I30" s="5">
-        <v>5</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0</v>
-      </c>
-      <c r="K30" s="5">
-        <v>6</v>
-      </c>
-      <c r="L30" s="5">
+    <row r="30" spans="1:15" s="7" customFormat="1" ht="43" customHeight="1">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="6">
+        <v>3</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6">
+        <v>5</v>
+      </c>
+      <c r="F30" s="6">
+        <v>7</v>
+      </c>
+      <c r="G30" s="6">
+        <v>8</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1</v>
+      </c>
+      <c r="I30" s="6">
+        <v>5</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>6</v>
+      </c>
+      <c r="L30" s="6">
         <v>3</v>
       </c>
     </row>
